--- a/output/raw_data/恒生指数成分股市值明细.xlsx
+++ b/output/raw_data/恒生指数成分股市值明细.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t>名稱</t>
   </si>
@@ -25,247 +25,259 @@
     <t>市值（B HKD）</t>
   </si>
   <si>
+    <t>萬洲國際</t>
+  </si>
+  <si>
+    <t>中國石油化工股份</t>
+  </si>
+  <si>
+    <t>申洲國際</t>
+  </si>
+  <si>
+    <t>華潤電力</t>
+  </si>
+  <si>
     <t>比亞迪電子</t>
   </si>
   <si>
-    <t>華潤電力</t>
+    <t>舜宇光學科技</t>
+  </si>
+  <si>
+    <t>華潤萬象生活</t>
   </si>
   <si>
     <t>華潤啤酒</t>
   </si>
   <si>
+    <t>京東物流</t>
+  </si>
+  <si>
+    <t>中國海洋石油</t>
+  </si>
+  <si>
+    <t>東方海外國際</t>
+  </si>
+  <si>
+    <t>友邦保險</t>
+  </si>
+  <si>
+    <t>中國電信</t>
+  </si>
+  <si>
+    <t>網易－Ｓ</t>
+  </si>
+  <si>
+    <t>龍湖集團</t>
+  </si>
+  <si>
+    <t>新奧能源</t>
+  </si>
+  <si>
+    <t>海爾智家</t>
+  </si>
+  <si>
+    <t>海底撈</t>
+  </si>
+  <si>
+    <t>新東方－Ｓ</t>
+  </si>
+  <si>
+    <t>九龍倉置業</t>
+  </si>
+  <si>
+    <t>美團－Ｗ</t>
+  </si>
+  <si>
+    <t>中芯國際</t>
+  </si>
+  <si>
+    <t>康師傅控股</t>
+  </si>
+  <si>
+    <t>蒙牛乳業</t>
+  </si>
+  <si>
+    <t>香港交易所</t>
+  </si>
+  <si>
+    <t>藥明康德</t>
+  </si>
+  <si>
+    <t>美的集團</t>
+  </si>
+  <si>
+    <t>騰訊控股</t>
+  </si>
+  <si>
+    <t>工商銀行</t>
+  </si>
+  <si>
+    <t>恒隆地產</t>
+  </si>
+  <si>
+    <t>李寧</t>
+  </si>
+  <si>
+    <t>京東集團－ＳＷ</t>
+  </si>
+  <si>
+    <t>中國平安</t>
+  </si>
+  <si>
+    <t>比亞迪股份－一百</t>
+  </si>
+  <si>
+    <t>信義玻璃</t>
+  </si>
+  <si>
+    <t>中銀香港</t>
+  </si>
+  <si>
+    <t>攜程集團－Ｓ</t>
+  </si>
+  <si>
+    <t>百度集團－ＳＷ</t>
+  </si>
+  <si>
+    <t>快手－Ｗ</t>
+  </si>
+  <si>
+    <t>中國銀行</t>
+  </si>
+  <si>
+    <t>泡泡瑪特</t>
+  </si>
+  <si>
+    <t>中信股份</t>
+  </si>
+  <si>
+    <t>中升控股</t>
+  </si>
+  <si>
+    <t>信義光能</t>
+  </si>
+  <si>
+    <t>恆安國際</t>
+  </si>
+  <si>
+    <t>阿里巴巴－Ｗ</t>
+  </si>
+  <si>
+    <t>恆生銀行</t>
+  </si>
+  <si>
+    <t>新鴻基地產</t>
+  </si>
+  <si>
+    <t>中國聯通</t>
+  </si>
+  <si>
+    <t>農夫山泉</t>
+  </si>
+  <si>
+    <t>國藥控股</t>
+  </si>
+  <si>
+    <t>中國宏橋</t>
+  </si>
+  <si>
+    <t>安踏體育</t>
+  </si>
+  <si>
+    <t>翰森製藥</t>
+  </si>
+  <si>
+    <t>招商銀行</t>
+  </si>
+  <si>
+    <t>華潤置地</t>
+  </si>
+  <si>
+    <t>紫金礦業</t>
+  </si>
+  <si>
+    <t>京東健康</t>
+  </si>
+  <si>
+    <t>長和</t>
+  </si>
+  <si>
+    <t>理想汽車－Ｗ</t>
+  </si>
+  <si>
+    <t>吉利汽車</t>
+  </si>
+  <si>
+    <t>創科實業</t>
+  </si>
+  <si>
+    <t>銀河娛樂</t>
+  </si>
+  <si>
+    <t>港鐵公司</t>
+  </si>
+  <si>
+    <t>中電控股</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
+    <t>金沙中國有限公司</t>
+  </si>
+  <si>
+    <t>中國海外發展</t>
+  </si>
+  <si>
+    <t>藥明生物</t>
+  </si>
+  <si>
+    <t>中國石油股份</t>
+  </si>
+  <si>
+    <t>聯想集團</t>
+  </si>
+  <si>
+    <t>周大福</t>
+  </si>
+  <si>
+    <t>中國生物製藥</t>
+  </si>
+  <si>
+    <t>長實集團</t>
+  </si>
+  <si>
+    <t>中國神華</t>
+  </si>
+  <si>
+    <t>恆基地產</t>
+  </si>
+  <si>
+    <t>長江基建集團</t>
+  </si>
+  <si>
+    <t>香港中華煤氣</t>
+  </si>
+  <si>
+    <t>中通快遞－Ｗ</t>
+  </si>
+  <si>
+    <t>百威亞太</t>
+  </si>
+  <si>
+    <t>石藥集團</t>
+  </si>
+  <si>
+    <t>領展房產基金</t>
+  </si>
+  <si>
+    <t>電能實業</t>
+  </si>
+  <si>
     <t>阿里健康</t>
   </si>
   <si>
-    <t>東方海外國際</t>
-  </si>
-  <si>
-    <t>申洲國際</t>
-  </si>
-  <si>
-    <t>舜宇光學科技</t>
-  </si>
-  <si>
-    <t>華潤萬象生活</t>
-  </si>
-  <si>
-    <t>中國海洋石油</t>
-  </si>
-  <si>
-    <t>友邦保險</t>
-  </si>
-  <si>
-    <t>海底撈</t>
-  </si>
-  <si>
-    <t>龍湖集團</t>
-  </si>
-  <si>
-    <t>海爾智家</t>
-  </si>
-  <si>
-    <t>新奧能源</t>
-  </si>
-  <si>
-    <t>九龍倉置業</t>
-  </si>
-  <si>
-    <t>網易－Ｓ</t>
-  </si>
-  <si>
-    <t>美團－Ｗ</t>
-  </si>
-  <si>
-    <t>康師傅控股</t>
-  </si>
-  <si>
-    <t>新東方－Ｓ</t>
-  </si>
-  <si>
-    <t>蒙牛乳業</t>
-  </si>
-  <si>
-    <t>香港交易所</t>
-  </si>
-  <si>
-    <t>美的集團</t>
-  </si>
-  <si>
-    <t>藥明康德</t>
-  </si>
-  <si>
-    <t>工商銀行</t>
-  </si>
-  <si>
-    <t>騰訊控股</t>
-  </si>
-  <si>
-    <t>中芯國際</t>
-  </si>
-  <si>
-    <t>李寧</t>
-  </si>
-  <si>
-    <t>中國平安</t>
-  </si>
-  <si>
-    <t>中銀香港</t>
-  </si>
-  <si>
-    <t>比亞迪股份</t>
-  </si>
-  <si>
-    <t>恒隆地產</t>
-  </si>
-  <si>
-    <t>京東集團－ＳＷ</t>
-  </si>
-  <si>
-    <t>攜程集團－Ｓ</t>
-  </si>
-  <si>
-    <t>中升控股</t>
-  </si>
-  <si>
-    <t>信義玻璃</t>
-  </si>
-  <si>
-    <t>中國銀行</t>
-  </si>
-  <si>
-    <t>中信股份</t>
-  </si>
-  <si>
-    <t>快手－Ｗ</t>
-  </si>
-  <si>
-    <t>中國聯通</t>
-  </si>
-  <si>
-    <t>信義光能</t>
-  </si>
-  <si>
-    <t>恆安國際</t>
-  </si>
-  <si>
-    <t>百度集團－ＳＷ</t>
-  </si>
-  <si>
-    <t>新鴻基地產</t>
-  </si>
-  <si>
-    <t>安踏體育</t>
-  </si>
-  <si>
-    <t>國藥控股</t>
-  </si>
-  <si>
-    <t>農夫山泉</t>
-  </si>
-  <si>
-    <t>中國宏橋</t>
-  </si>
-  <si>
-    <t>華潤置地</t>
-  </si>
-  <si>
-    <t>翰森製藥</t>
-  </si>
-  <si>
-    <t>招商銀行</t>
-  </si>
-  <si>
-    <t>恆生銀行</t>
-  </si>
-  <si>
-    <t>京東健康</t>
-  </si>
-  <si>
-    <t>阿里巴巴－Ｗ</t>
-  </si>
-  <si>
-    <t>理想汽車－Ｗ</t>
-  </si>
-  <si>
-    <t>長和</t>
-  </si>
-  <si>
-    <t>吉利汽車</t>
-  </si>
-  <si>
-    <t>創科實業</t>
-  </si>
-  <si>
-    <t>銀河娛樂</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
-    <t>中電控股</t>
-  </si>
-  <si>
-    <t>港鐵公司</t>
-  </si>
-  <si>
-    <t>金沙中國有限公司</t>
-  </si>
-  <si>
-    <t>紫金礦業</t>
-  </si>
-  <si>
-    <t>中國石油股份</t>
-  </si>
-  <si>
-    <t>中國生物製藥</t>
-  </si>
-  <si>
-    <t>中國海外發展</t>
-  </si>
-  <si>
-    <t>周大福</t>
-  </si>
-  <si>
-    <t>藥明生物</t>
-  </si>
-  <si>
-    <t>聯想集團</t>
-  </si>
-  <si>
-    <t>長江基建集團</t>
-  </si>
-  <si>
-    <t>香港中華煤氣</t>
-  </si>
-  <si>
-    <t>恆基地產</t>
-  </si>
-  <si>
-    <t>長實集團</t>
-  </si>
-  <si>
-    <t>石藥集團</t>
-  </si>
-  <si>
-    <t>中國神華</t>
-  </si>
-  <si>
-    <t>中通快遞－Ｗ</t>
-  </si>
-  <si>
-    <t>百威亞太</t>
-  </si>
-  <si>
-    <t>萬洲國際</t>
-  </si>
-  <si>
-    <t>電能實業</t>
-  </si>
-  <si>
-    <t>領展房產基金</t>
-  </si>
-  <si>
-    <t>中國石油化工股份</t>
+    <t>匯豐控股</t>
   </si>
   <si>
     <t>建設銀行</t>
@@ -274,253 +286,262 @@
     <t>中國移動</t>
   </si>
   <si>
-    <t>匯豐控股</t>
-  </si>
-  <si>
     <t>小米集團－Ｗ</t>
   </si>
   <si>
+    <t>00288.HK</t>
+  </si>
+  <si>
+    <t>00386.HK</t>
+  </si>
+  <si>
+    <t>02313.HK</t>
+  </si>
+  <si>
+    <t>00836.HK</t>
+  </si>
+  <si>
     <t>00285.HK</t>
   </si>
   <si>
-    <t>00836.HK</t>
+    <t>02382.HK</t>
+  </si>
+  <si>
+    <t>01209.HK</t>
   </si>
   <si>
     <t>00291.HK</t>
   </si>
   <si>
+    <t>02618.HK</t>
+  </si>
+  <si>
+    <t>00883.HK</t>
+  </si>
+  <si>
+    <t>00316.HK</t>
+  </si>
+  <si>
+    <t>01299.HK</t>
+  </si>
+  <si>
+    <t>00728.HK</t>
+  </si>
+  <si>
+    <t>09999.HK</t>
+  </si>
+  <si>
+    <t>00960.HK</t>
+  </si>
+  <si>
+    <t>02688.HK</t>
+  </si>
+  <si>
+    <t>06690.HK</t>
+  </si>
+  <si>
+    <t>06862.HK</t>
+  </si>
+  <si>
+    <t>09901.HK</t>
+  </si>
+  <si>
+    <t>01997.HK</t>
+  </si>
+  <si>
+    <t>03690.HK</t>
+  </si>
+  <si>
+    <t>00981.HK</t>
+  </si>
+  <si>
+    <t>00322.HK</t>
+  </si>
+  <si>
+    <t>02319.HK</t>
+  </si>
+  <si>
+    <t>00388.HK</t>
+  </si>
+  <si>
+    <t>02359.HK</t>
+  </si>
+  <si>
+    <t>00300.HK</t>
+  </si>
+  <si>
+    <t>00700.HK</t>
+  </si>
+  <si>
+    <t>01398.HK</t>
+  </si>
+  <si>
+    <t>00101.HK</t>
+  </si>
+  <si>
+    <t>02331.HK</t>
+  </si>
+  <si>
+    <t>09618.HK</t>
+  </si>
+  <si>
+    <t>02318.HK</t>
+  </si>
+  <si>
+    <t>01211.HK</t>
+  </si>
+  <si>
+    <t>00868.HK</t>
+  </si>
+  <si>
+    <t>02388.HK</t>
+  </si>
+  <si>
+    <t>09961.HK</t>
+  </si>
+  <si>
+    <t>09888.HK</t>
+  </si>
+  <si>
+    <t>01024.HK</t>
+  </si>
+  <si>
+    <t>03988.HK</t>
+  </si>
+  <si>
+    <t>09992.HK</t>
+  </si>
+  <si>
+    <t>00267.HK</t>
+  </si>
+  <si>
+    <t>00881.HK</t>
+  </si>
+  <si>
+    <t>00968.HK</t>
+  </si>
+  <si>
+    <t>01044.HK</t>
+  </si>
+  <si>
+    <t>09988.HK</t>
+  </si>
+  <si>
+    <t>00011.HK</t>
+  </si>
+  <si>
+    <t>00016.HK</t>
+  </si>
+  <si>
+    <t>00762.HK</t>
+  </si>
+  <si>
+    <t>09633.HK</t>
+  </si>
+  <si>
+    <t>01099.HK</t>
+  </si>
+  <si>
+    <t>01378.HK</t>
+  </si>
+  <si>
+    <t>02020.HK</t>
+  </si>
+  <si>
+    <t>03692.HK</t>
+  </si>
+  <si>
+    <t>03968.HK</t>
+  </si>
+  <si>
+    <t>01109.HK</t>
+  </si>
+  <si>
+    <t>02899.HK</t>
+  </si>
+  <si>
+    <t>06618.HK</t>
+  </si>
+  <si>
+    <t>00001.HK</t>
+  </si>
+  <si>
+    <t>02015.HK</t>
+  </si>
+  <si>
+    <t>00175.HK</t>
+  </si>
+  <si>
+    <t>00669.HK</t>
+  </si>
+  <si>
+    <t>00027.HK</t>
+  </si>
+  <si>
+    <t>00066.HK</t>
+  </si>
+  <si>
+    <t>00002.HK</t>
+  </si>
+  <si>
+    <t>02628.HK</t>
+  </si>
+  <si>
+    <t>01928.HK</t>
+  </si>
+  <si>
+    <t>00688.HK</t>
+  </si>
+  <si>
+    <t>02269.HK</t>
+  </si>
+  <si>
+    <t>00857.HK</t>
+  </si>
+  <si>
+    <t>00992.HK</t>
+  </si>
+  <si>
+    <t>01929.HK</t>
+  </si>
+  <si>
+    <t>01177.HK</t>
+  </si>
+  <si>
+    <t>01113.HK</t>
+  </si>
+  <si>
+    <t>01088.HK</t>
+  </si>
+  <si>
+    <t>00012.HK</t>
+  </si>
+  <si>
+    <t>01038.HK</t>
+  </si>
+  <si>
+    <t>00003.HK</t>
+  </si>
+  <si>
+    <t>02057.HK</t>
+  </si>
+  <si>
+    <t>01876.HK</t>
+  </si>
+  <si>
+    <t>01093.HK</t>
+  </si>
+  <si>
+    <t>00823.HK</t>
+  </si>
+  <si>
+    <t>00006.HK</t>
+  </si>
+  <si>
     <t>00241.HK</t>
   </si>
   <si>
-    <t>00316.HK</t>
-  </si>
-  <si>
-    <t>02313.HK</t>
-  </si>
-  <si>
-    <t>02382.HK</t>
-  </si>
-  <si>
-    <t>01209.HK</t>
-  </si>
-  <si>
-    <t>00883.HK</t>
-  </si>
-  <si>
-    <t>01299.HK</t>
-  </si>
-  <si>
-    <t>06862.HK</t>
-  </si>
-  <si>
-    <t>00960.HK</t>
-  </si>
-  <si>
-    <t>06690.HK</t>
-  </si>
-  <si>
-    <t>02688.HK</t>
-  </si>
-  <si>
-    <t>01997.HK</t>
-  </si>
-  <si>
-    <t>09999.HK</t>
-  </si>
-  <si>
-    <t>03690.HK</t>
-  </si>
-  <si>
-    <t>00322.HK</t>
-  </si>
-  <si>
-    <t>09901.HK</t>
-  </si>
-  <si>
-    <t>02319.HK</t>
-  </si>
-  <si>
-    <t>00388.HK</t>
-  </si>
-  <si>
-    <t>00300.HK</t>
-  </si>
-  <si>
-    <t>02359.HK</t>
-  </si>
-  <si>
-    <t>01398.HK</t>
-  </si>
-  <si>
-    <t>00700.HK</t>
-  </si>
-  <si>
-    <t>00981.HK</t>
-  </si>
-  <si>
-    <t>02331.HK</t>
-  </si>
-  <si>
-    <t>02318.HK</t>
-  </si>
-  <si>
-    <t>02388.HK</t>
-  </si>
-  <si>
-    <t>01211.HK</t>
-  </si>
-  <si>
-    <t>00101.HK</t>
-  </si>
-  <si>
-    <t>09618.HK</t>
-  </si>
-  <si>
-    <t>09961.HK</t>
-  </si>
-  <si>
-    <t>00881.HK</t>
-  </si>
-  <si>
-    <t>00868.HK</t>
-  </si>
-  <si>
-    <t>03988.HK</t>
-  </si>
-  <si>
-    <t>00267.HK</t>
-  </si>
-  <si>
-    <t>01024.HK</t>
-  </si>
-  <si>
-    <t>00762.HK</t>
-  </si>
-  <si>
-    <t>00968.HK</t>
-  </si>
-  <si>
-    <t>01044.HK</t>
-  </si>
-  <si>
-    <t>09888.HK</t>
-  </si>
-  <si>
-    <t>00016.HK</t>
-  </si>
-  <si>
-    <t>02020.HK</t>
-  </si>
-  <si>
-    <t>01099.HK</t>
-  </si>
-  <si>
-    <t>09633.HK</t>
-  </si>
-  <si>
-    <t>01378.HK</t>
-  </si>
-  <si>
-    <t>01109.HK</t>
-  </si>
-  <si>
-    <t>03692.HK</t>
-  </si>
-  <si>
-    <t>03968.HK</t>
-  </si>
-  <si>
-    <t>00011.HK</t>
-  </si>
-  <si>
-    <t>06618.HK</t>
-  </si>
-  <si>
-    <t>09988.HK</t>
-  </si>
-  <si>
-    <t>02015.HK</t>
-  </si>
-  <si>
-    <t>00001.HK</t>
-  </si>
-  <si>
-    <t>00175.HK</t>
-  </si>
-  <si>
-    <t>00669.HK</t>
-  </si>
-  <si>
-    <t>00027.HK</t>
-  </si>
-  <si>
-    <t>02628.HK</t>
-  </si>
-  <si>
-    <t>00002.HK</t>
-  </si>
-  <si>
-    <t>00066.HK</t>
-  </si>
-  <si>
-    <t>01928.HK</t>
-  </si>
-  <si>
-    <t>02899.HK</t>
-  </si>
-  <si>
-    <t>00857.HK</t>
-  </si>
-  <si>
-    <t>01177.HK</t>
-  </si>
-  <si>
-    <t>00688.HK</t>
-  </si>
-  <si>
-    <t>01929.HK</t>
-  </si>
-  <si>
-    <t>02269.HK</t>
-  </si>
-  <si>
-    <t>00992.HK</t>
-  </si>
-  <si>
-    <t>01038.HK</t>
-  </si>
-  <si>
-    <t>00003.HK</t>
-  </si>
-  <si>
-    <t>00012.HK</t>
-  </si>
-  <si>
-    <t>01113.HK</t>
-  </si>
-  <si>
-    <t>01093.HK</t>
-  </si>
-  <si>
-    <t>01088.HK</t>
-  </si>
-  <si>
-    <t>02057.HK</t>
-  </si>
-  <si>
-    <t>01876.HK</t>
-  </si>
-  <si>
-    <t>00288.HK</t>
-  </si>
-  <si>
-    <t>00006.HK</t>
-  </si>
-  <si>
-    <t>00823.HK</t>
-  </si>
-  <si>
-    <t>00386.HK</t>
+    <t>00005.HK</t>
   </si>
   <si>
     <t>00939.HK</t>
@@ -529,265 +550,271 @@
     <t>00941.HK</t>
   </si>
   <si>
-    <t>00005.HK</t>
-  </si>
-  <si>
     <t>01810.HK</t>
   </si>
   <si>
-    <t>98.20 B HKD</t>
-  </si>
-  <si>
-    <t>93.24 B HKD</t>
-  </si>
-  <si>
-    <t>92.14 B HKD</t>
-  </si>
-  <si>
-    <t>92.07 B HKD</t>
-  </si>
-  <si>
-    <t>91.20 B HKD</t>
-  </si>
-  <si>
-    <t>90.64 B HKD</t>
-  </si>
-  <si>
-    <t>90.10 B HKD</t>
-  </si>
-  <si>
-    <t>89.47 B HKD</t>
-  </si>
-  <si>
-    <t>878.77 B HKD</t>
-  </si>
-  <si>
-    <t>776.80 B HKD</t>
-  </si>
-  <si>
-    <t>77.26 B HKD</t>
-  </si>
-  <si>
-    <t>76.23 B HKD</t>
-  </si>
-  <si>
-    <t>75.49 B HKD</t>
-  </si>
-  <si>
-    <t>70.82 B HKD</t>
-  </si>
-  <si>
-    <t>70.08 B HKD</t>
-  </si>
-  <si>
-    <t>686.18 B HKD</t>
-  </si>
-  <si>
-    <t>631.88 B HKD</t>
-  </si>
-  <si>
-    <t>62.62 B HKD</t>
-  </si>
-  <si>
-    <t>62.44 B HKD</t>
-  </si>
-  <si>
-    <t>59.88 B HKD</t>
-  </si>
-  <si>
-    <t>576.11 B HKD</t>
-  </si>
-  <si>
-    <t>54.98 B HKD</t>
-  </si>
-  <si>
-    <t>54.95 B HKD</t>
-  </si>
-  <si>
-    <t>500.80 B HKD</t>
-  </si>
-  <si>
-    <t>5,526.30 B HKD</t>
-  </si>
-  <si>
-    <t>495.15 B HKD</t>
-  </si>
-  <si>
-    <t>48.75 B HKD</t>
-  </si>
-  <si>
-    <t>423.77 B HKD</t>
-  </si>
-  <si>
-    <t>400.92 B HKD</t>
-  </si>
-  <si>
-    <t>399.28 B HKD</t>
-  </si>
-  <si>
-    <t>39.47 B HKD</t>
-  </si>
-  <si>
-    <t>387.93 B HKD</t>
-  </si>
-  <si>
-    <t>378.90 B HKD</t>
-  </si>
-  <si>
-    <t>37.92 B HKD</t>
-  </si>
-  <si>
-    <t>37.76 B HKD</t>
-  </si>
-  <si>
-    <t>362.08 B HKD</t>
-  </si>
-  <si>
-    <t>327.26 B HKD</t>
-  </si>
-  <si>
-    <t>323.92 B HKD</t>
-  </si>
-  <si>
-    <t>303.53 B HKD</t>
-  </si>
-  <si>
-    <t>30.69 B HKD</t>
-  </si>
-  <si>
-    <t>28.81 B HKD</t>
-  </si>
-  <si>
-    <t>269.35 B HKD</t>
-  </si>
-  <si>
-    <t>268.33 B HKD</t>
-  </si>
-  <si>
-    <t>265.70 B HKD</t>
-  </si>
-  <si>
-    <t>25.27 B HKD</t>
-  </si>
-  <si>
-    <t>249.42 B HKD</t>
-  </si>
-  <si>
-    <t>246.09 B HKD</t>
-  </si>
-  <si>
-    <t>222.06 B HKD</t>
-  </si>
-  <si>
-    <t>220.65 B HKD</t>
-  </si>
-  <si>
-    <t>214.58 B HKD</t>
-  </si>
-  <si>
-    <t>211.13 B HKD</t>
-  </si>
-  <si>
-    <t>204.17 B HKD</t>
-  </si>
-  <si>
-    <t>2,586.42 B HKD</t>
-  </si>
-  <si>
-    <t>199.21 B HKD</t>
-  </si>
-  <si>
-    <t>197.82 B HKD</t>
-  </si>
-  <si>
-    <t>194.57 B HKD</t>
-  </si>
-  <si>
-    <t>183.66 B HKD</t>
-  </si>
-  <si>
-    <t>180.86 B HKD</t>
-  </si>
-  <si>
-    <t>178.74 B HKD</t>
-  </si>
-  <si>
-    <t>166.87 B HKD</t>
-  </si>
-  <si>
-    <t>165.21 B HKD</t>
-  </si>
-  <si>
-    <t>165.10 B HKD</t>
-  </si>
-  <si>
-    <t>162.30 B HKD</t>
-  </si>
-  <si>
-    <t>161.62 B HKD</t>
-  </si>
-  <si>
-    <t>156.46 B HKD</t>
-  </si>
-  <si>
-    <t>156.18 B HKD</t>
-  </si>
-  <si>
-    <t>145.90 B HKD</t>
-  </si>
-  <si>
-    <t>142.39 B HKD</t>
-  </si>
-  <si>
-    <t>137.44 B HKD</t>
-  </si>
-  <si>
-    <t>131.90 B HKD</t>
-  </si>
-  <si>
-    <t>131.74 B HKD</t>
-  </si>
-  <si>
-    <t>131.40 B HKD</t>
-  </si>
-  <si>
-    <t>129.98 B HKD</t>
-  </si>
-  <si>
-    <t>122.48 B HKD</t>
-  </si>
-  <si>
-    <t>120.85 B HKD</t>
-  </si>
-  <si>
-    <t>114.64 B HKD</t>
-  </si>
-  <si>
-    <t>112.57 B HKD</t>
-  </si>
-  <si>
-    <t>108.67 B HKD</t>
-  </si>
-  <si>
-    <t>108.15 B HKD</t>
-  </si>
-  <si>
-    <t>107.94 B HKD</t>
-  </si>
-  <si>
-    <t>103.98 B HKD</t>
-  </si>
-  <si>
-    <t>1,831.98 B HKD</t>
-  </si>
-  <si>
-    <t>1,796.64 B HKD</t>
-  </si>
-  <si>
-    <t>1,740.69 B HKD</t>
-  </si>
-  <si>
-    <t>1,402.72 B HKD</t>
+    <t>99.05 B HKD</t>
+  </si>
+  <si>
+    <t>98.41 B HKD</t>
+  </si>
+  <si>
+    <t>96.58 B HKD</t>
+  </si>
+  <si>
+    <t>94.48 B HKD</t>
+  </si>
+  <si>
+    <t>93.33 B HKD</t>
+  </si>
+  <si>
+    <t>92.62 B HKD</t>
+  </si>
+  <si>
+    <t>91.98 B HKD</t>
+  </si>
+  <si>
+    <t>89.80 B HKD</t>
+  </si>
+  <si>
+    <t>85.92 B HKD</t>
+  </si>
+  <si>
+    <t>840.02 B HKD</t>
+  </si>
+  <si>
+    <t>81.23 B HKD</t>
+  </si>
+  <si>
+    <t>776.28 B HKD</t>
+  </si>
+  <si>
+    <t>76.74 B HKD</t>
+  </si>
+  <si>
+    <t>752.07 B HKD</t>
+  </si>
+  <si>
+    <t>74.71 B HKD</t>
+  </si>
+  <si>
+    <t>74.55 B HKD</t>
+  </si>
+  <si>
+    <t>72.64 B HKD</t>
+  </si>
+  <si>
+    <t>71.68 B HKD</t>
+  </si>
+  <si>
+    <t>68.93 B HKD</t>
+  </si>
+  <si>
+    <t>68.80 B HKD</t>
+  </si>
+  <si>
+    <t>621.52 B HKD</t>
+  </si>
+  <si>
+    <t>620.40 B HKD</t>
+  </si>
+  <si>
+    <t>59.07 B HKD</t>
+  </si>
+  <si>
+    <t>57.31 B HKD</t>
+  </si>
+  <si>
+    <t>563.68 B HKD</t>
+  </si>
+  <si>
+    <t>55.35 B HKD</t>
+  </si>
+  <si>
+    <t>52.85 B HKD</t>
+  </si>
+  <si>
+    <t>5,963.18 B HKD</t>
+  </si>
+  <si>
+    <t>491.25 B HKD</t>
+  </si>
+  <si>
+    <t>45.41 B HKD</t>
+  </si>
+  <si>
+    <t>43.73 B HKD</t>
+  </si>
+  <si>
+    <t>420.12 B HKD</t>
+  </si>
+  <si>
+    <t>401.42 B HKD</t>
+  </si>
+  <si>
+    <t>398.54 B HKD</t>
+  </si>
+  <si>
+    <t>39.96 B HKD</t>
+  </si>
+  <si>
+    <t>389.71 B HKD</t>
+  </si>
+  <si>
+    <t>371.71 B HKD</t>
+  </si>
+  <si>
+    <t>365.43 B HKD</t>
+  </si>
+  <si>
+    <t>362.62 B HKD</t>
+  </si>
+  <si>
+    <t>351.21 B HKD</t>
+  </si>
+  <si>
+    <t>348.63 B HKD</t>
+  </si>
+  <si>
+    <t>330.76 B HKD</t>
+  </si>
+  <si>
+    <t>33.73 B HKD</t>
+  </si>
+  <si>
+    <t>32.59 B HKD</t>
+  </si>
+  <si>
+    <t>30.81 B HKD</t>
+  </si>
+  <si>
+    <t>3,157.20 B HKD</t>
+  </si>
+  <si>
+    <t>282.11 B HKD</t>
+  </si>
+  <si>
+    <t>280.50 B HKD</t>
+  </si>
+  <si>
+    <t>273.85 B HKD</t>
+  </si>
+  <si>
+    <t>272.12 B HKD</t>
+  </si>
+  <si>
+    <t>25.33 B HKD</t>
+  </si>
+  <si>
+    <t>248.60 B HKD</t>
+  </si>
+  <si>
+    <t>245.63 B HKD</t>
+  </si>
+  <si>
+    <t>219.32 B HKD</t>
+  </si>
+  <si>
+    <t>212.47 B HKD</t>
+  </si>
+  <si>
+    <t>210.08 B HKD</t>
+  </si>
+  <si>
+    <t>201.58 B HKD</t>
+  </si>
+  <si>
+    <t>200.41 B HKD</t>
+  </si>
+  <si>
+    <t>199.35 B HKD</t>
+  </si>
+  <si>
+    <t>197.28 B HKD</t>
+  </si>
+  <si>
+    <t>192.76 B HKD</t>
+  </si>
+  <si>
+    <t>173.47 B HKD</t>
+  </si>
+  <si>
+    <t>168.43 B HKD</t>
+  </si>
+  <si>
+    <t>166.33 B HKD</t>
+  </si>
+  <si>
+    <t>165.99 B HKD</t>
+  </si>
+  <si>
+    <t>164.15 B HKD</t>
+  </si>
+  <si>
+    <t>163.00 B HKD</t>
+  </si>
+  <si>
+    <t>154.98 B HKD</t>
+  </si>
+  <si>
+    <t>154.77 B HKD</t>
+  </si>
+  <si>
+    <t>153.39 B HKD</t>
+  </si>
+  <si>
+    <t>151.83 B HKD</t>
+  </si>
+  <si>
+    <t>147.48 B HKD</t>
+  </si>
+  <si>
+    <t>146.33 B HKD</t>
+  </si>
+  <si>
+    <t>134.39 B HKD</t>
+  </si>
+  <si>
+    <t>133.61 B HKD</t>
+  </si>
+  <si>
+    <t>132.36 B HKD</t>
+  </si>
+  <si>
+    <t>130.39 B HKD</t>
+  </si>
+  <si>
+    <t>129.87 B HKD</t>
+  </si>
+  <si>
+    <t>120.19 B HKD</t>
+  </si>
+  <si>
+    <t>110.98 B HKD</t>
+  </si>
+  <si>
+    <t>109.81 B HKD</t>
+  </si>
+  <si>
+    <t>105.72 B HKD</t>
+  </si>
+  <si>
+    <t>104.81 B HKD</t>
+  </si>
+  <si>
+    <t>100.29 B HKD</t>
+  </si>
+  <si>
+    <t>1,785.52 B HKD</t>
+  </si>
+  <si>
+    <t>1,764.66 B HKD</t>
+  </si>
+  <si>
+    <t>1,757.38 B HKD</t>
+  </si>
+  <si>
+    <t>1,354.75 B HKD</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1167,10 +1194,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1178,10 +1205,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1189,10 +1216,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1200,10 +1227,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1211,10 +1238,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1222,10 +1249,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1233,10 +1260,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1244,10 +1271,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1255,10 +1282,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1266,10 +1293,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1277,10 +1304,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1288,10 +1315,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1299,10 +1326,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1310,10 +1337,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1321,10 +1348,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1332,10 +1359,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1343,10 +1370,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1354,10 +1381,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1365,10 +1392,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1376,10 +1403,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1387,10 +1414,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1398,10 +1425,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1409,10 +1436,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1420,10 +1447,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1431,10 +1458,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1442,10 +1469,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1453,10 +1480,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1464,10 +1491,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1475,10 +1502,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1486,10 +1513,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1497,10 +1524,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1508,10 +1535,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1519,10 +1546,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1530,10 +1557,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1541,10 +1568,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1552,10 +1579,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1563,10 +1590,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1574,10 +1601,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1585,10 +1612,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1596,10 +1623,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1607,10 +1634,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1618,10 +1645,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1629,10 +1656,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1640,10 +1667,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1651,10 +1678,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1662,10 +1689,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1673,10 +1700,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C48" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1684,10 +1711,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1695,10 +1722,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1706,10 +1733,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1717,10 +1744,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1728,10 +1755,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1739,10 +1766,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1750,10 +1777,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1761,10 +1788,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1772,10 +1799,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1783,10 +1810,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1794,10 +1821,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1805,10 +1832,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1816,10 +1843,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1827,10 +1854,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1838,10 +1865,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1849,10 +1876,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C64" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1860,10 +1887,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1871,10 +1898,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1882,10 +1909,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1893,10 +1920,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1904,10 +1931,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1915,10 +1942,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1926,10 +1953,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C71" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1937,10 +1964,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1948,10 +1975,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1959,10 +1986,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C74" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1970,10 +1997,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C75" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1981,10 +2008,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1992,10 +2019,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2003,10 +2030,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2014,10 +2041,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2025,10 +2052,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C80" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2036,10 +2063,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2047,10 +2074,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2058,10 +2085,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C83" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2069,10 +2096,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2080,10 +2107,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C85" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2091,10 +2118,43 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C86" t="s">
-        <v>257</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
